--- a/GMLA loading analysis/score_and_count_reassign.xlsx
+++ b/GMLA loading analysis/score_and_count_reassign.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Projects\GMLA loading analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84452320-9491-4E4B-AE67-115B2C75C9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -97,6 +91,9 @@
     <t>weighted_score</t>
   </si>
   <si>
+    <t>Project Name</t>
+  </si>
+  <si>
     <t>Aalto Lo</t>
   </si>
   <si>
@@ -119,21 +116,17 @@
   </si>
   <si>
     <t>Wendy Ni</t>
-  </si>
-  <si>
-    <t>Project count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,15 +134,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,33 +174,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -256,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,27 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,24 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,20 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -621,12 +554,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -665,10 +598,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -728,10 +661,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -770,10 +703,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -812,10 +745,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -827,10 +760,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -863,10 +796,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -914,10 +847,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -950,12 +883,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -994,10 +927,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1057,10 +990,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1099,10 +1032,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1141,10 +1074,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1156,10 +1089,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1192,10 +1125,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1243,10 +1176,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1284,7 +1217,6 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>